--- a/policy_attribution/filtered_policies_by_positive_break.xlsx
+++ b/policy_attribution/filtered_policies_by_positive_break.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c46ea174191bacb1/Documenti/LAURA/HERTIE 22-23/THESIS/patent_breakdetection/policy_attribution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:40009_{0F23F509-4E41-45C4-80D0-3A04292688B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4862D906-3CAC-4A30-801B-044187EEEE00}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:40009_{0F23F509-4E41-45C4-80D0-3A04292688B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD7E3CA9-13A7-4FC1-98E2-F409F012BC33}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="filtered_policies_by_positive_b" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5298" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5298" uniqueCount="1517">
   <si>
     <t>policy_id</t>
   </si>
@@ -4570,6 +4570,9 @@
   </si>
   <si>
     <t xml:space="preserve"> (solar, wind, and anaerobic digesters)</t>
+  </si>
+  <si>
+    <t>The District of Columbia's Retail Electric Competition and Consumer ProtectionAct of 1999 required the DC Public Service Commission (PSC) to establish apublic benefits fund to provide energy assistance to low-income residents, andto support energy-efficiency programs and renewable-energy programs. Thisfund, known as the Reliable Energy Trust Fund (RETF), took effect in 2001. InOctober 2008, the District of Columbia enacted the Clean and Affordable EnergyAct (CAEA), which effectively eliminated the RETF and replaced it with theSustainable Energy Trust Fund (SETF). This program is administered by thethird-party DC Sustainable Energy Utility (DCSEU) which develops, coordinates,and provides programs for promoting the sustainable use of energy in theDistrict of Columbia. Since 2011, DCSEU has saved residents $1.2 billion inenergy, invested over fifty million in low-income communities, and prevented6.2 million tons of greenhouse gases. For more information on the DCSEU'ssuccess visit here. **Funding**  The SETF is financed by a non-bypassable surcharge on the electric and naturalgas bills of utility customers who are not Residential Aid Discount (RAD) orResidential Essential Service (RES) customers. The surcharge for natural gascustomers is calculated on a per term basis and is assessed at $0.011 inFiscal Year (FY) 2009, $0.012 in FY 2010, and $0.014 in FY 2012 and eachsubsequent year. The surcharge for electric customers is calculated on a per-kilowatt-hour basis and is assessed at $0.0011 in FY 2009, $0.0013 in FY 2010and $0.0015 in FY 2011 and each subsequent year. The October 2008 legislationalso established a separate Energy Assistance Trust Fund (EATF). The EATFcollects a surcharge of $0.006/term from natural gas sales. It collects$0.0000607/kWh from electric sales in general, plus an additional assessment$0.00069/kWh for June - September 2010. Electricity collections were formerlyset at $0.0004/kWh, but the law regarding the EATF surcharge was amended in2010.The 2020 annual budget amounted to just under twenty million dollars, anyunused funding will carry over to the following year. Notable expendituresinclude $2.4M to low-income multifamily projects, $814,000 in energy rebatesto businesses, $1.1M to workforce development, and $4.4M to custom commercialrenovations and installations.**Programs**  In the past, the RETF program supported weatherization measures; appliancereplacements for low-income residents; RAD extension; LIHEAP expansion andeducation; energy efficiency for small businesses, institutions and nonprofits; ENERGY STAR appliance and lighting rebates, home energy ratings andloan promotions, public education and outreach, distributed generation and netmetering; and renewable-energy demonstration projects. The program websitelisted at the top of this page contains a detailed history of the RETF/SETF. **Legislation**Per DC Code Â§ 8-1774.01, the Mayor, through the District Department of theEnvironment (DDOE), is charged to contract with a Sustainable Energy Utility\-- the DCSEU -- to conduct sustainable energy programs on behalf of DC. InMarch of 2011, the SEU contract, which is designed to administer sustainableenergy programs in the District, was awarded by the DC Council to VermontEnergy Investment Corporation (VEIC), a non-profit organization. VEIC haspartnered with dozens of local organizations to implement the program, withVEIC principally responsible for program-design and management. In the firstyear of the contract, VEIC is required to implement energy-saving measures inlow-income multifamily homes, to arrange for energy-saving installations incommercial buildings, and to create green jobs, among many other initiatives.VEIC operates a similar program in Vermont and also has helped set up programsin Oregon, Delaware, and Maine. An annual independent review of theperformance of the SEU is to be conducted beginning in FY2012, under Â§8-1774.05(k) of the D.C. Code.1</t>
   </si>
 </sst>
 </file>
@@ -5459,8 +5462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L552"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A307" zoomScale="121" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="F307" sqref="F307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5558,7 +5561,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>1516</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>20</v>
@@ -24855,8 +24858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD73"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25185,7 +25188,7 @@
         <v>220</v>
       </c>
       <c r="F18" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G18" s="7">
         <v>39295</v>
@@ -26255,8 +26258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31680B27-03BE-4CA2-9596-66237A8E80BD}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26606,7 +26609,7 @@
         <v>220</v>
       </c>
       <c r="E17" s="10">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>219</v>
